--- a/LLMTypeTesting/timings_20_question_gemini-2.0-flash.xlsx
+++ b/LLMTypeTesting/timings_20_question_gemini-2.0-flash.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krisztina_PC\flask-chatbot\LLMTypeTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123F3373-FF3F-4CD6-83DC-874152765EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37189CF-1EF7-412E-8B4A-0DB5A38EABEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1146,7 +1146,7 @@
   <dimension ref="B5:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/LLMTypeTesting/timings_20_question_gemini-2.0-flash.xlsx
+++ b/LLMTypeTesting/timings_20_question_gemini-2.0-flash.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krisztina_PC\flask-chatbot\LLMTypeTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37189CF-1EF7-412E-8B4A-0DB5A38EABEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED20552B-1F36-4AB2-8AF2-918696780CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Rendszer feldolgozási idő (Backend)</t>
   </si>
   <si>
-    <t>Kliensoldal eldolgozási Idő (Frontend)</t>
-  </si>
-  <si>
     <t>Teljes felhasználói válaszidő (Backend+Frontend)</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>Szemantikus hasonlóság  (bertscore_f1) átlag</t>
+  </si>
+  <si>
+    <t>Kliensoldal feldolgozási Idő (Frontend)</t>
   </si>
 </sst>
 </file>
@@ -584,11 +584,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -607,24 +612,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
       <c r="D2">
         <v>2.0099999999999998</v>
@@ -644,13 +649,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3">
         <v>1.18</v>
@@ -670,13 +675,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4">
         <v>1.54</v>
@@ -696,13 +701,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
       </c>
       <c r="D5">
         <v>1.38</v>
@@ -722,13 +727,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
       </c>
       <c r="D6">
         <v>1.39</v>
@@ -748,13 +753,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
       <c r="D7">
         <v>1.47</v>
@@ -774,13 +779,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
       </c>
       <c r="D8">
         <v>1.27</v>
@@ -800,13 +805,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9">
         <v>1.34</v>
@@ -826,13 +831,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
       <c r="D10">
         <v>1.61</v>
@@ -852,13 +857,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
       </c>
       <c r="D11">
         <v>1.4</v>
@@ -878,13 +883,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
       </c>
       <c r="D12">
         <v>1.69</v>
@@ -904,13 +909,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
       </c>
       <c r="D13">
         <v>2.08</v>
@@ -930,13 +935,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
       </c>
       <c r="D14">
         <v>1.67</v>
@@ -956,13 +961,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
       </c>
       <c r="D15">
         <v>1.43</v>
@@ -982,13 +987,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
         <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
       </c>
       <c r="D16">
         <v>1.18</v>
@@ -1008,13 +1013,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
         <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
       </c>
       <c r="D17">
         <v>2.34</v>
@@ -1034,13 +1039,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
       </c>
       <c r="D18">
         <v>1.44</v>
@@ -1060,13 +1065,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
       </c>
       <c r="D19">
         <v>1.31</v>
@@ -1086,13 +1091,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
         <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
       </c>
       <c r="D20">
         <v>1.1100000000000001</v>
@@ -1112,13 +1117,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
         <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
       </c>
       <c r="D21">
         <v>1.9</v>
@@ -1145,7 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B162248-14ED-4C4D-8548-997F570173CF}">
   <dimension ref="B5:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -1153,7 +1158,7 @@
   <sheetData>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <f>ROUND(AVERAGE(Sheet1!G2:G21),2)</f>
@@ -1162,7 +1167,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7">
         <f>ROUND(AVERAGE(Sheet1!H2:H21),2)</f>
